--- a/Tos.FoodProcs.Web/templates/kuradashiIrai_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/kuradashiIrai_vi.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\FPL_VN版\src_code\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="1980" windowHeight="1140"/>
   </bookViews>
@@ -18,102 +23,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Group　　　　　：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Date　　　　　 ：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Output date　  ：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Output person  ：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Material code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Material name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Packing style</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Usage unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Quantity of
-usage plan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Necessary
-quantity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item type　    ：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Inventory of
-yesterday</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Issue date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Material Issue Order</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Issue unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Confirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Issue order
-quantity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Issue order
-partial quantity</t>
-    <phoneticPr fontId="1"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>Yêu cầu xuất kho</t>
+  </si>
+  <si>
+    <t>Ngày sản xuất</t>
+  </si>
+  <si>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>Phân loại nhóm</t>
+  </si>
+  <si>
+    <t>Ngày xuất</t>
+  </si>
+  <si>
+    <t>Người xuất</t>
+  </si>
+  <si>
+    <t>Ngày xuất kho</t>
+  </si>
+  <si>
+    <t>Mã</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Quy cách đóng gói</t>
+  </si>
+  <si>
+    <t>Đơn vị
+sử dụng</t>
+  </si>
+  <si>
+    <t>Số lượng dự định sử dụng</t>
+  </si>
+  <si>
+    <t>Số lượng tồn hôm trước</t>
+  </si>
+  <si>
+    <t>Số lượng cần để sản xuất</t>
+  </si>
+  <si>
+    <t>Đơn vị xuất kho</t>
+  </si>
+  <si>
+    <t>Số lượng yêu cầu xuất kho</t>
+  </si>
+  <si>
+    <t>Số lẻ yêu cầu xuất kho</t>
+  </si>
+  <si>
+    <t>Duyệt</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="#,##0.000"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="167" formatCode="@* \:"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -128,31 +107,27 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -227,36 +202,20 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -264,11 +223,23 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -276,61 +247,57 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -338,12 +305,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -385,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,9 +387,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,6 +422,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -637,25 +609,25 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="20" customWidth="1"/>
-    <col min="7" max="9" width="15.625" style="23" customWidth="1"/>
-    <col min="10" max="11" width="20" style="23" customWidth="1"/>
-    <col min="12" max="12" width="18" style="23" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="20" customWidth="1"/>
-    <col min="14" max="14" width="40.625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="20" customWidth="1"/>
+    <col min="7" max="9" width="15.6640625" style="19" customWidth="1"/>
+    <col min="10" max="11" width="20" style="19" customWidth="1"/>
+    <col min="12" max="12" width="18" style="19" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" style="20" customWidth="1"/>
+    <col min="14" max="14" width="40.6640625" style="16" customWidth="1"/>
     <col min="15" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -668,11 +640,10 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
       <c r="C2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="5"/>
@@ -683,138 +654,133 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A9" s="17" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="K9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1">
-      <c r="F10" s="22"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="N9" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
